--- a/study01/report/motivation/scr-signedup-participants/interest-enjoyment/by-Type/NonParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/interest-enjoyment/by-Type/NonParametricAnalysis.xlsx
@@ -26292,13 +26292,13 @@
         <v>84.0</v>
       </c>
       <c r="G7" t="n" s="730">
-        <v>-0.9220964049950048</v>
+        <v>-0.9220964049950047</v>
       </c>
       <c r="H7" t="n" s="731">
         <v>0.1838894020482019</v>
       </c>
       <c r="I7" t="n" s="732">
-        <v>0.1712290037573912</v>
+        <v>0.17122900375739117</v>
       </c>
       <c r="J7" t="s" s="733">
         <v>39</v>
@@ -26324,13 +26324,13 @@
         <v>84.0</v>
       </c>
       <c r="G8" t="n" s="730">
-        <v>-0.9220964049950048</v>
+        <v>-0.9220964049950047</v>
       </c>
       <c r="H8" t="n" s="731">
         <v>0.1838894020482019</v>
       </c>
       <c r="I8" t="n" s="732">
-        <v>0.1712290037573912</v>
+        <v>0.17122900375739117</v>
       </c>
       <c r="J8" t="s" s="733">
         <v>39</v>
@@ -26393,13 +26393,13 @@
         <v>84.0</v>
       </c>
       <c r="G11" t="n" s="758">
-        <v>-0.9220964049950048</v>
+        <v>-0.9220964049950047</v>
       </c>
       <c r="H11" t="n" s="759">
         <v>0.8217974475094754</v>
       </c>
       <c r="I11" t="n" s="760">
-        <v>0.1712290037573912</v>
+        <v>0.17122900375739117</v>
       </c>
       <c r="J11" t="s" s="761">
         <v>39</v>
@@ -26425,13 +26425,13 @@
         <v>84.0</v>
       </c>
       <c r="G12" t="n" s="758">
-        <v>-0.9220964049950048</v>
+        <v>-0.9220964049950047</v>
       </c>
       <c r="H12" t="n" s="759">
         <v>0.8217974475094754</v>
       </c>
       <c r="I12" t="n" s="760">
-        <v>0.1712290037573912</v>
+        <v>0.17122900375739117</v>
       </c>
       <c r="J12" t="s" s="761">
         <v>39</v>
@@ -26494,13 +26494,13 @@
         <v>84.0</v>
       </c>
       <c r="G15" t="n" s="786">
-        <v>-0.9220964049950048</v>
+        <v>-0.9220964049950047</v>
       </c>
       <c r="H15" t="n" s="787">
         <v>0.36790301959443394</v>
       </c>
       <c r="I15" t="n" s="788">
-        <v>0.1712290037573912</v>
+        <v>0.17122900375739117</v>
       </c>
       <c r="J15" t="s" s="789">
         <v>39</v>
@@ -26526,13 +26526,13 @@
         <v>84.0</v>
       </c>
       <c r="G16" t="n" s="786">
-        <v>-0.9220964049950048</v>
+        <v>-0.9220964049950047</v>
       </c>
       <c r="H16" t="n" s="787">
         <v>0.36790301959443394</v>
       </c>
       <c r="I16" t="n" s="788">
-        <v>0.1712290037573912</v>
+        <v>0.17122900375739117</v>
       </c>
       <c r="J16" t="s" s="789">
         <v>39</v>
